--- a/output7/【河洛白話注音-雅俗通】《TestCase》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《TestCase》.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F8647F-DA3E-4639-B4A3-B5BC9950E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EACB20E-120B-46E3-B827-75E2E417F047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23970" yWindow="2460" windowWidth="22575" windowHeight="12555" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="人工標音字庫" sheetId="39" r:id="rId3"/>
-    <sheet name="漢字庫" sheetId="38" r:id="rId4"/>
-    <sheet name="缺字表" sheetId="5" r:id="rId5"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId6"/>
-    <sheet name="標音字庫" sheetId="4" r:id="rId7"/>
-    <sheet name="漢字庫（範例）" sheetId="10" r:id="rId8"/>
+    <sheet name="缺字表" sheetId="71" r:id="rId3"/>
+    <sheet name="人工標音字庫" sheetId="70" r:id="rId4"/>
+    <sheet name="標音字庫" sheetId="69" r:id="rId5"/>
+    <sheet name="標音字庫（範例）" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="318">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -457,704 +455,705 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lik8</t>
+  </si>
+  <si>
+    <t>niu7</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>mui2</t>
+  </si>
+  <si>
+    <t>lit8</t>
+  </si>
+  <si>
+    <t>ki5</t>
+  </si>
+  <si>
+    <t>to2</t>
+  </si>
+  <si>
+    <t>gun2</t>
+  </si>
+  <si>
+    <t>khiam1</t>
+  </si>
+  <si>
+    <t>pi1</t>
+  </si>
+  <si>
+    <t>te7</t>
+  </si>
+  <si>
+    <t>king3</t>
+  </si>
+  <si>
+    <t>giong2</t>
+  </si>
+  <si>
+    <t>zan3</t>
+  </si>
+  <si>
+    <t>sui2</t>
+  </si>
+  <si>
+    <t>kam2</t>
+  </si>
+  <si>
+    <t>sia7</t>
+  </si>
+  <si>
+    <t>hok8</t>
+  </si>
+  <si>
+    <t>ziong5</t>
+  </si>
+  <si>
+    <t>kap4</t>
+  </si>
+  <si>
+    <t>ai3</t>
+  </si>
+  <si>
+    <t>zuan5</t>
+  </si>
+  <si>
+    <t>ling5</t>
+  </si>
+  <si>
+    <t>te3</t>
+  </si>
+  <si>
+    <t>zi3</t>
+  </si>
+  <si>
+    <t>ko1</t>
+  </si>
+  <si>
+    <t>bo5</t>
+  </si>
+  <si>
+    <t>ui2</t>
+  </si>
+  <si>
+    <t>tua7</t>
+  </si>
+  <si>
+    <t>su3</t>
+  </si>
+  <si>
+    <t>gap4</t>
+  </si>
+  <si>
+    <t>sun5</t>
+  </si>
+  <si>
+    <t>soo3</t>
+  </si>
+  <si>
+    <t>se3</t>
+  </si>
+  <si>
+    <t>kai3</t>
+  </si>
+  <si>
+    <t>pinn5</t>
+  </si>
+  <si>
+    <t>hun5</t>
+  </si>
+  <si>
+    <t>thau2</t>
+  </si>
+  <si>
+    <t>thuat4</t>
+  </si>
+  <si>
+    <t>ui5</t>
+  </si>
+  <si>
+    <t>zit8</t>
+  </si>
+  <si>
+    <t>kiann2</t>
+  </si>
+  <si>
+    <t>li5</t>
+  </si>
+  <si>
+    <t>in1</t>
+  </si>
+  <si>
+    <t>si7</t>
+  </si>
+  <si>
+    <t>ziong1</t>
+  </si>
+  <si>
+    <t>kik8</t>
+  </si>
+  <si>
+    <t>bin5</t>
+  </si>
+  <si>
+    <t>su1</t>
+  </si>
+  <si>
+    <t>hoo7</t>
+  </si>
+  <si>
+    <t>kiu3</t>
+  </si>
+  <si>
+    <t>siok8</t>
+  </si>
+  <si>
+    <t>zun1</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>sing3</t>
+  </si>
+  <si>
+    <t>tiat4</t>
+  </si>
+  <si>
+    <t>ka3</t>
+  </si>
+  <si>
+    <t>hue3</t>
+  </si>
+  <si>
+    <t>tai7</t>
+  </si>
+  <si>
+    <t>pio2</t>
+  </si>
+  <si>
+    <t>thueh8</t>
+  </si>
+  <si>
+    <t>sing1</t>
+  </si>
+  <si>
     <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>niu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩七耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>to2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khiam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>king3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>giong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kam2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公八喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘四求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ko1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘四語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pinn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梔五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交二他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thuat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀四他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiann2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>li5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>in1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽七喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅四地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ka3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜三喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄二邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thueh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜八他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sing1</t>
-  </si>
-  <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍七英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經八柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>niu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩七耐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽五英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居五求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君二語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼一去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭二語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迦七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公八喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭五曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘四求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆三英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀五曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘四語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinn5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梔五邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交二他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thuat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀四他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規五英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiann2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驚二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經八求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽七喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭八時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅四地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檜三喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茄二邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thueh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檜八他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1169,14 +1168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i1</t>
-  </si>
-  <si>
     <t>巾五入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1185,6 +1177,7 @@
   </si>
   <si>
     <t>siang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姜七時</t>
@@ -1192,10 +1185,16 @@
   </si>
   <si>
     <t>校正音標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong7</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1493,7 +1492,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1515,6 +1514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,7 +1598,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,9 +1757,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,6 +1774,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2697,7 +2705,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -2737,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2846,7 +2854,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{70AC5B68-6433-4BB0-A2FE-DE7C65198188}">
       <formula1>"預設,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音, 閩拼方案"</formula1>
     </dataValidation>
@@ -2880,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -2956,41 +2964,41 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="T3" s="26"/>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="56" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="27"/>
       <c r="D4" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -2998,7 +3006,7 @@
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="29"/>
-      <c r="V4" s="58"/>
+      <c r="V4" s="57"/>
     </row>
     <row r="5" spans="2:22" s="16" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="30">
@@ -3007,31 +3015,31 @@
       <c r="D5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="59" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="52" t="str">
@@ -3044,40 +3052,40 @@
       <c r="Q5" s="52"/>
       <c r="R5" s="52"/>
       <c r="S5" s="31"/>
-      <c r="V5" s="58"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="2:22" s="36" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -3085,7 +3093,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
       <c r="S6" s="35"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="57"/>
     </row>
     <row r="7" spans="2:22" s="40" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="37"/>
@@ -3106,7 +3114,7 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="39"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="57"/>
     </row>
     <row r="8" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="27"/>
@@ -3126,7 +3134,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
       <c r="S8" s="29"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="57"/>
     </row>
     <row r="9" spans="2:22" s="16" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="30">
@@ -3154,7 +3162,7 @@
       <c r="R9" s="52"/>
       <c r="S9" s="31"/>
       <c r="T9" s="26"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="57"/>
     </row>
     <row r="10" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="32"/>
@@ -3174,7 +3182,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="41"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="2:22" s="39" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="42"/>
@@ -3194,148 +3202,148 @@
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="57"/>
     </row>
     <row r="12" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="27"/>
       <c r="D12" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S12" s="29"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="57"/>
     </row>
     <row r="13" spans="2:22" s="16" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="30">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="P13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="52" t="s">
+      <c r="Q13" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="52" t="s">
+      <c r="R13" s="59" t="s">
         <v>51</v>
       </c>
       <c r="S13" s="31"/>
-      <c r="V13" s="58"/>
+      <c r="V13" s="57"/>
     </row>
     <row r="14" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="32"/>
       <c r="D14" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M14" s="34"/>
       <c r="N14" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P14" s="34"/>
       <c r="Q14" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S14" s="41"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="57"/>
     </row>
     <row r="15" spans="2:22" s="45" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="22"/>
@@ -3355,156 +3363,156 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="57"/>
     </row>
     <row r="16" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="27"/>
       <c r="D16" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S16" s="29"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="57"/>
     </row>
     <row r="17" spans="2:22" s="16" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="30">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="59" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="52" t="s">
+      <c r="N17" s="59" t="s">
         <v>60</v>
       </c>
       <c r="O17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="59" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="52" t="s">
+      <c r="R17" s="59" t="s">
         <v>56</v>
       </c>
       <c r="S17" s="31"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="57"/>
     </row>
     <row r="18" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="32"/>
       <c r="D18" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S18" s="41"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="57"/>
     </row>
     <row r="19" spans="2:22" s="45" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="22"/>
@@ -3524,148 +3532,148 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="57"/>
     </row>
     <row r="20" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K20" s="28"/>
       <c r="L20" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O20" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R20" s="28"/>
       <c r="S20" s="29"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="57"/>
     </row>
     <row r="21" spans="2:22" s="16" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="30">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="59" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="59" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="52" t="s">
+      <c r="O21" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q21" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="R21" s="52" t="s">
+      <c r="R21" s="59" t="s">
         <v>45</v>
       </c>
       <c r="S21" s="31"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="57"/>
     </row>
     <row r="22" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="32"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="41"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="58"/>
     </row>
     <row r="23" spans="2:22" s="45" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="22"/>
@@ -3690,37 +3698,37 @@
     <row r="24" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="27"/>
       <c r="D24" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L24" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
@@ -3734,40 +3742,40 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="52" t="s">
+      <c r="J25" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="52" t="s">
+      <c r="K25" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="N25" s="52" t="s">
+      <c r="N25" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="52" t="s">
+      <c r="O25" s="59" t="s">
         <v>75</v>
       </c>
       <c r="P25" s="52" t="str">
@@ -3783,37 +3791,37 @@
     <row r="26" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="32"/>
       <c r="D26" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -3956,47 +3964,47 @@
     <row r="32" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="27"/>
       <c r="D32" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M32" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O32" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R32" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S32" s="29"/>
       <c r="U32" s="45" t="str">
@@ -4010,49 +4018,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="52" t="s">
+      <c r="J33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="59" t="s">
         <v>47</v>
       </c>
       <c r="L33" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="N33" s="52" t="s">
+      <c r="N33" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="O33" s="52" t="s">
+      <c r="O33" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="52" t="s">
+      <c r="P33" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="R33" s="52" t="s">
+      <c r="R33" s="59" t="s">
         <v>79</v>
       </c>
       <c r="S33" s="31"/>
@@ -4061,47 +4069,47 @@
     <row r="34" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="32"/>
       <c r="D34" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L34" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R34" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S34" s="41"/>
       <c r="V34" s="17"/>
@@ -4118,7 +4126,9 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
+      <c r="M35" s="24" t="s">
+        <v>316</v>
+      </c>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -4130,7 +4140,7 @@
       <c r="B36" s="27"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>272</v>
@@ -4149,13 +4159,13 @@
       </c>
       <c r="K36" s="28"/>
       <c r="L36" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O36" s="28" t="s">
         <v>284</v>
@@ -4173,46 +4183,46 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="J37" s="52" t="s">
+      <c r="J37" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="52" t="s">
+      <c r="K37" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L37" s="52" t="s">
+      <c r="L37" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="N37" s="52" t="s">
+      <c r="N37" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="O37" s="52" t="s">
+      <c r="O37" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="59" t="s">
         <v>75</v>
       </c>
       <c r="R37" s="52" t="str">
@@ -4227,7 +4237,7 @@
       <c r="B38" s="32"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>273</v>
@@ -4246,13 +4256,13 @@
       </c>
       <c r="K38" s="34"/>
       <c r="L38" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O38" s="34" t="s">
         <v>285</v>
@@ -4377,19 +4387,19 @@
     <row r="44" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="27"/>
       <c r="D44" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>288</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>290</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>292</v>
@@ -4398,7 +4408,7 @@
         <v>309</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L44" s="28" t="s">
         <v>292</v>
@@ -4407,7 +4417,7 @@
         <v>294</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O44" s="28" t="s">
         <v>296</v>
@@ -4417,7 +4427,7 @@
       </c>
       <c r="Q44" s="28"/>
       <c r="R44" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S44" s="29"/>
       <c r="V44" s="17"/>
@@ -4427,49 +4437,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="52" t="s">
+      <c r="H45" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="52" t="s">
+      <c r="I45" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="52" t="s">
+      <c r="J45" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K45" s="52" t="s">
+      <c r="K45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="52" t="s">
+      <c r="L45" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="M45" s="52" t="s">
+      <c r="M45" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="N45" s="52" t="s">
+      <c r="N45" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O45" s="52" t="s">
+      <c r="O45" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="P45" s="52" t="s">
+      <c r="P45" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="Q45" s="52" t="s">
+      <c r="Q45" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="R45" s="52" t="s">
+      <c r="R45" s="59" t="s">
         <v>39</v>
       </c>
       <c r="S45" s="31"/>
@@ -4478,28 +4488,28 @@
     <row r="46" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="32"/>
       <c r="D46" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="34" t="s">
         <v>289</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>291</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>293</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L46" s="34" t="s">
         <v>293</v>
@@ -4508,7 +4518,7 @@
         <v>295</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O46" s="34" t="s">
         <v>297</v>
@@ -4518,7 +4528,7 @@
       </c>
       <c r="Q46" s="34"/>
       <c r="R46" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S46" s="41"/>
       <c r="V46" s="17"/>
@@ -4546,42 +4556,42 @@
     <row r="48" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="27"/>
       <c r="D48" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L48" s="28"/>
       <c r="M48" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N48" s="28" t="s">
         <v>272</v>
       </c>
       <c r="O48" s="28" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P48" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R48" s="28" t="s">
         <v>300</v>
@@ -4594,49 +4604,49 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="52" t="s">
+      <c r="H49" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="52" t="s">
+      <c r="I49" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="52" t="s">
+      <c r="J49" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="52" t="s">
+      <c r="L49" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="M49" s="49" t="s">
+      <c r="M49" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="N49" s="52" t="s">
+      <c r="N49" s="59" t="s">
         <v>81</v>
       </c>
       <c r="O49" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="P49" s="52" t="s">
+      <c r="P49" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="Q49" s="52" t="s">
+      <c r="Q49" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="R49" s="52" t="s">
+      <c r="R49" s="59" t="s">
         <v>97</v>
       </c>
       <c r="S49" s="31"/>
@@ -4645,42 +4655,42 @@
     <row r="50" spans="2:22" s="16" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="32"/>
       <c r="D50" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="L50" s="34"/>
       <c r="M50" s="34" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="N50" s="34" t="s">
         <v>273</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q50" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R50" s="34" t="s">
         <v>301</v>
@@ -4694,7 +4704,9 @@
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="G51" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -4715,22 +4727,22 @@
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>282</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J52" s="28" t="s">
         <v>292</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L52" s="28" t="s">
         <v>304</v>
@@ -4751,37 +4763,37 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="52" t="s">
+      <c r="G53" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="52" t="s">
+      <c r="H53" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="I53" s="52" t="s">
+      <c r="I53" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="J53" s="52" t="s">
+      <c r="J53" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="K53" s="52" t="s">
+      <c r="K53" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="52" t="s">
+      <c r="L53" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="M53" s="52" t="s">
+      <c r="M53" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="N53" s="52" t="s">
+      <c r="N53" s="59" t="s">
         <v>75</v>
       </c>
       <c r="O53" s="52"/>
@@ -4798,22 +4810,22 @@
       </c>
       <c r="E54" s="34"/>
       <c r="F54" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>283</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J54" s="34" t="s">
         <v>293</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L54" s="34" t="s">
         <v>305</v>
@@ -4879,7 +4891,7 @@
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
-      <c r="G57" s="54"/>
+      <c r="G57" s="53"/>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
@@ -4962,7 +4974,7 @@
       <c r="D61" s="52"/>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
-      <c r="G61" s="54"/>
+      <c r="G61" s="53"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52"/>
@@ -5045,7 +5057,7 @@
       <c r="D65" s="52"/>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
-      <c r="G65" s="54"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52"/>
@@ -5128,7 +5140,7 @@
       <c r="D69" s="52"/>
       <c r="E69" s="52"/>
       <c r="F69" s="52"/>
-      <c r="G69" s="54"/>
+      <c r="G69" s="53"/>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
       <c r="J69" s="52"/>
@@ -5294,7 +5306,7 @@
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
       <c r="F77" s="52"/>
-      <c r="G77" s="54"/>
+      <c r="G77" s="53"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52"/>
@@ -5460,7 +5472,7 @@
       <c r="D85" s="52"/>
       <c r="E85" s="52"/>
       <c r="F85" s="52"/>
-      <c r="G85" s="54"/>
+      <c r="G85" s="53"/>
       <c r="H85" s="52"/>
       <c r="I85" s="52"/>
       <c r="J85" s="52"/>
@@ -5709,7 +5721,7 @@
       <c r="D97" s="52"/>
       <c r="E97" s="52"/>
       <c r="F97" s="52"/>
-      <c r="G97" s="54"/>
+      <c r="G97" s="53"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52"/>
@@ -5875,7 +5887,7 @@
       <c r="D105" s="52"/>
       <c r="E105" s="52"/>
       <c r="F105" s="52"/>
-      <c r="G105" s="54"/>
+      <c r="G105" s="53"/>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
       <c r="J105" s="52"/>
@@ -5883,7 +5895,7 @@
       <c r="L105" s="52"/>
       <c r="M105" s="52"/>
       <c r="N105" s="52"/>
-      <c r="O105" s="55"/>
+      <c r="O105" s="54"/>
       <c r="P105" s="52"/>
       <c r="Q105" s="52"/>
       <c r="R105" s="52"/>
@@ -6049,7 +6061,7 @@
       <c r="L113" s="52"/>
       <c r="M113" s="52"/>
       <c r="N113" s="52"/>
-      <c r="O113" s="55"/>
+      <c r="O113" s="54"/>
       <c r="P113" s="52"/>
       <c r="Q113" s="52"/>
       <c r="R113" s="52"/>
@@ -6123,8 +6135,8 @@
       </c>
       <c r="D117" s="52"/>
       <c r="E117" s="52"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
       <c r="H117" s="52"/>
       <c r="I117" s="52"/>
       <c r="J117" s="52"/>
@@ -6207,7 +6219,7 @@
       <c r="D121" s="52"/>
       <c r="E121" s="52"/>
       <c r="F121" s="52"/>
-      <c r="G121" s="54"/>
+      <c r="G121" s="53"/>
       <c r="H121" s="52"/>
       <c r="I121" s="52"/>
       <c r="J121" s="52"/>
@@ -6290,7 +6302,7 @@
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="52"/>
-      <c r="G125" s="54"/>
+      <c r="G125" s="53"/>
       <c r="H125" s="52"/>
       <c r="I125" s="52"/>
       <c r="J125" s="52"/>
@@ -6378,7 +6390,7 @@
       <c r="I129" s="52"/>
       <c r="J129" s="52"/>
       <c r="K129" s="52"/>
-      <c r="L129" s="56"/>
+      <c r="L129" s="55"/>
       <c r="M129" s="52"/>
       <c r="N129" s="52"/>
       <c r="O129" s="52"/>
@@ -6456,7 +6468,7 @@
       <c r="D133" s="52"/>
       <c r="E133" s="52"/>
       <c r="F133" s="52"/>
-      <c r="G133" s="54"/>
+      <c r="G133" s="53"/>
       <c r="H133" s="52"/>
       <c r="I133" s="52"/>
       <c r="J133" s="52"/>
@@ -6622,7 +6634,7 @@
       <c r="D141" s="52"/>
       <c r="E141" s="52"/>
       <c r="F141" s="52"/>
-      <c r="G141" s="54"/>
+      <c r="G141" s="53"/>
       <c r="H141" s="52"/>
       <c r="I141" s="52"/>
       <c r="J141" s="52"/>
@@ -6705,7 +6717,7 @@
       <c r="D145" s="52"/>
       <c r="E145" s="52"/>
       <c r="F145" s="52"/>
-      <c r="G145" s="54"/>
+      <c r="G145" s="53"/>
       <c r="H145" s="52"/>
       <c r="I145" s="52"/>
       <c r="J145" s="52"/>
@@ -7281,7 +7293,7 @@
       <c r="D173" s="52"/>
       <c r="E173" s="52"/>
       <c r="F173" s="52"/>
-      <c r="G173" s="54"/>
+      <c r="G173" s="53"/>
       <c r="H173" s="52"/>
       <c r="I173" s="52"/>
       <c r="J173" s="52"/>
@@ -7439,7 +7451,7 @@
       <c r="D181" s="52"/>
       <c r="E181" s="52"/>
       <c r="F181" s="52"/>
-      <c r="G181" s="54"/>
+      <c r="G181" s="53"/>
       <c r="H181" s="52"/>
       <c r="I181" s="52"/>
       <c r="J181" s="52"/>
@@ -7676,7 +7688,7 @@
       <c r="D193" s="52"/>
       <c r="E193" s="52"/>
       <c r="F193" s="52"/>
-      <c r="G193" s="54"/>
+      <c r="G193" s="53"/>
       <c r="H193" s="52"/>
       <c r="I193" s="52"/>
       <c r="J193" s="52"/>
@@ -7755,7 +7767,7 @@
       <c r="D197" s="52"/>
       <c r="E197" s="52"/>
       <c r="F197" s="52"/>
-      <c r="G197" s="54"/>
+      <c r="G197" s="53"/>
       <c r="H197" s="52"/>
       <c r="I197" s="52"/>
       <c r="J197" s="52"/>
@@ -7834,7 +7846,7 @@
       <c r="D201" s="52"/>
       <c r="E201" s="52"/>
       <c r="F201" s="52"/>
-      <c r="G201" s="54"/>
+      <c r="G201" s="53"/>
       <c r="H201" s="52"/>
       <c r="I201" s="52"/>
       <c r="J201" s="52"/>
@@ -7913,7 +7925,7 @@
       <c r="D205" s="52"/>
       <c r="E205" s="52"/>
       <c r="F205" s="52"/>
-      <c r="G205" s="54"/>
+      <c r="G205" s="53"/>
       <c r="H205" s="52"/>
       <c r="I205" s="52"/>
       <c r="J205" s="52"/>
@@ -7992,7 +8004,7 @@
       <c r="D209" s="52"/>
       <c r="E209" s="52"/>
       <c r="F209" s="52"/>
-      <c r="G209" s="54"/>
+      <c r="G209" s="53"/>
       <c r="H209" s="52"/>
       <c r="I209" s="52"/>
       <c r="J209" s="52"/>
@@ -8071,7 +8083,7 @@
       <c r="D213" s="52"/>
       <c r="E213" s="52"/>
       <c r="F213" s="52"/>
-      <c r="G213" s="54"/>
+      <c r="G213" s="53"/>
       <c r="H213" s="52"/>
       <c r="I213" s="52"/>
       <c r="J213" s="52"/>
@@ -8150,7 +8162,7 @@
       <c r="D217" s="52"/>
       <c r="E217" s="52"/>
       <c r="F217" s="52"/>
-      <c r="G217" s="54"/>
+      <c r="G217" s="53"/>
       <c r="H217" s="52"/>
       <c r="I217" s="52"/>
       <c r="J217" s="52"/>
@@ -8229,7 +8241,7 @@
       <c r="D221" s="52"/>
       <c r="E221" s="52"/>
       <c r="F221" s="52"/>
-      <c r="G221" s="54"/>
+      <c r="G221" s="53"/>
       <c r="H221" s="52"/>
       <c r="I221" s="52"/>
       <c r="J221" s="52"/>
@@ -8308,7 +8320,7 @@
       <c r="D225" s="52"/>
       <c r="E225" s="52"/>
       <c r="F225" s="52"/>
-      <c r="G225" s="54"/>
+      <c r="G225" s="53"/>
       <c r="H225" s="52"/>
       <c r="I225" s="52"/>
       <c r="J225" s="52"/>
@@ -8387,7 +8399,7 @@
       <c r="D229" s="52"/>
       <c r="E229" s="52"/>
       <c r="F229" s="52"/>
-      <c r="G229" s="54"/>
+      <c r="G229" s="53"/>
       <c r="H229" s="52"/>
       <c r="I229" s="52"/>
       <c r="J229" s="52"/>
@@ -8466,7 +8478,7 @@
       <c r="D233" s="52"/>
       <c r="E233" s="52"/>
       <c r="F233" s="52"/>
-      <c r="G233" s="54"/>
+      <c r="G233" s="53"/>
       <c r="H233" s="52"/>
       <c r="I233" s="52"/>
       <c r="J233" s="52"/>
@@ -8545,7 +8557,7 @@
       <c r="D237" s="52"/>
       <c r="E237" s="52"/>
       <c r="F237" s="52"/>
-      <c r="G237" s="54"/>
+      <c r="G237" s="53"/>
       <c r="H237" s="52"/>
       <c r="I237" s="52"/>
       <c r="J237" s="52"/>
@@ -8624,7 +8636,7 @@
       <c r="D241" s="52"/>
       <c r="E241" s="52"/>
       <c r="F241" s="52"/>
-      <c r="G241" s="54"/>
+      <c r="G241" s="53"/>
       <c r="H241" s="52"/>
       <c r="I241" s="52"/>
       <c r="J241" s="52"/>
@@ -8859,14 +8871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C772CBE-537D-41CF-9F19-915C94F860DA}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0E41CE-B2D1-4A65-BA93-AAE43D800E1D}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -8876,38 +8888,8 @@
       <c r="C1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>314</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8917,11 +8899,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA352BB0-80F6-421C-BAC6-52E9844D703C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316B0DF4-78BD-4250-84EB-ACAF0FC79700}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0E9582-E9A8-4823-90CA-7149601B2B90}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8937,7 +8980,7 @@
         <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8945,13 +8988,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8959,10 +9002,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8970,7 +9016,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8981,7 +9027,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8992,10 +9038,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9003,7 +9049,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9014,7 +9060,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9025,7 +9071,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9036,7 +9082,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9058,7 +9104,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -9069,7 +9115,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9080,7 +9126,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9091,7 +9137,7 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9102,7 +9148,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9113,7 +9159,7 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9124,10 +9170,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9135,7 +9181,7 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -9146,7 +9192,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -9157,7 +9203,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -9168,10 +9214,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9179,7 +9225,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9190,7 +9236,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -9201,7 +9247,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -9212,7 +9258,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9223,7 +9269,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9234,7 +9280,7 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9245,7 +9291,7 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9256,7 +9302,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9267,7 +9313,7 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9278,7 +9324,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9289,7 +9335,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9300,10 +9346,10 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9311,7 +9357,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9322,7 +9368,7 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -9333,7 +9379,7 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -9344,7 +9390,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -9355,7 +9401,7 @@
         <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -9377,7 +9423,7 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -9388,7 +9434,7 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -9399,7 +9445,7 @@
         <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9410,7 +9456,7 @@
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9421,7 +9467,7 @@
         <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9432,7 +9478,7 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9443,7 +9489,7 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9454,7 +9500,7 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -9465,7 +9511,7 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9476,10 +9522,10 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -9487,7 +9533,7 @@
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -9498,7 +9544,7 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -9509,7 +9555,7 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -9520,7 +9566,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -9531,7 +9577,7 @@
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -9542,10 +9588,10 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -9553,7 +9599,7 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -9564,7 +9610,7 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9575,7 +9621,7 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -9586,7 +9632,7 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9597,7 +9643,7 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -9608,7 +9654,7 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -9630,51 +9676,48 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
         <v>175</v>
@@ -9683,45 +9726,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -9733,48 +9776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60471D51-D636-404A-A978-24B07F67AA14}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674205D6-4024-4750-8EAE-A575575E0F28}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542A6414-2445-4B0D-A349-978859A6D3AE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9263D59E-1A21-4F31-9209-F968B9AD69DE}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/output7/【河洛白話注音-雅俗通】《TestCase》.xlsx
+++ b/output7/【河洛白話注音-雅俗通】《TestCase》.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9552BE39-1181-45F0-B699-5E7A7F5FFA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF67939-1D57-4838-BD3E-D2EAEDBEADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="48" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="47" r:id="rId4"/>
-    <sheet name="標音字庫" sheetId="46" r:id="rId5"/>
+    <sheet name="缺字表" sheetId="42" r:id="rId3"/>
+    <sheet name="人工標音字庫" sheetId="41" r:id="rId4"/>
+    <sheet name="標音字庫" sheetId="40" r:id="rId5"/>
     <sheet name="漢字庫（範例）" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="179">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -181,13 +181,6 @@
     <t>方音符號</t>
   </si>
   <si>
-    <t>上有力量的每日祈禱文
-阮謙卑地敬仰、讚美、感謝、服從与愛全能的上帝，至高無上的上帝，上偉大的上帝，賜與純素世界、世界和平与阮靈魂的解脫。
-阮感謝、愛与讚美上帝唯一的子兒，伊是終極明師，賜予阮救贖。
-阮遵循所有聖人与聖哲的教誨，阮感謝、愛与讚美伊，伊是上帝的代表，賜予阮靈性的提昇。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>上</t>
   </si>
   <si>
@@ -236,9 +229,6 @@
     <t>仰</t>
   </si>
   <si>
-    <t>、</t>
-  </si>
-  <si>
     <t>讚</t>
   </si>
   <si>
@@ -272,9 +262,6 @@
     <t>帝</t>
   </si>
   <si>
-    <t>，</t>
-  </si>
-  <si>
     <t>至</t>
   </si>
   <si>
@@ -326,9 +313,6 @@
     <t>脫</t>
   </si>
   <si>
-    <t>。</t>
-  </si>
-  <si>
     <t>唯</t>
   </si>
   <si>
@@ -405,9 +389,6 @@
   </si>
   <si>
     <t>昇</t>
-  </si>
-  <si>
-    <t>φ</t>
   </si>
   <si>
     <t>蓮</t>
@@ -644,516 +625,10 @@
     <t>sing1</t>
   </si>
   <si>
-    <t>u7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍七英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經八柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>niu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩七耐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽五英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ki5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居五求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君二語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼一去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭二語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sia7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迦七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公八喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭五曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘四求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆三英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀五曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規二英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘四語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ho5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinn5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梔五邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交二他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thuat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀四他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規五英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiann2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驚二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經八求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽七喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭八時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅四地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檜三喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茄二邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thueh8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檜八他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>jin5</t>
+  </si>
+  <si>
+    <t>i1</t>
   </si>
   <si>
     <t>《TestCase》</t>
@@ -1163,45 +638,14 @@
     <t>siong7</t>
   </si>
   <si>
-    <t>siong7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校正音標</t>
-  </si>
-  <si>
-    <t>in1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾一英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang5</t>
-  </si>
-  <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1442,14 +886,6 @@
     <font>
       <b/>
       <sz val="48"/>
-      <color rgb="FFFF0000"/>
-      <name val="吳守禮細明台語注音"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
       <color rgb="FF000000"/>
       <name val="吳守禮細明台語破音01"/>
       <family val="1"/>
@@ -1492,7 +928,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,18 +944,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFC8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,7 +1022,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,11 +1166,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -1757,25 +1184,29 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2742,7 +2173,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2902,75 +2333,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="58">
+      <c r="A1" s="50">
         <f xml:space="preserve"> COLUMN()</f>
         <v>1</v>
       </c>
-      <c r="B1" s="58">
+      <c r="B1" s="50">
         <f t="shared" ref="B1:R1" si="0" xml:space="preserve"> COLUMN()</f>
         <v>2</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1" s="58">
+      <c r="D1" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E1" s="58">
+      <c r="E1" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F1" s="58">
+      <c r="F1" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G1" s="58">
+      <c r="G1" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H1" s="58">
+      <c r="H1" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I1" s="58">
+      <c r="I1" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J1" s="58">
+      <c r="J1" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K1" s="58">
+      <c r="K1" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L1" s="58">
+      <c r="L1" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M1" s="58">
+      <c r="M1" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N1" s="58">
+      <c r="N1" s="50">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O1" s="58">
+      <c r="O1" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P1" s="58">
+      <c r="P1" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q1" s="58">
+      <c r="Q1" s="50">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R1" s="58">
+      <c r="R1" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2994,165 +2425,97 @@
       <c r="S2" s="19"/>
       <c r="V2" s="20">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
       <c r="T3" s="25"/>
-      <c r="V3" s="50" t="s">
-        <v>28</v>
-      </c>
+      <c r="V3" s="51"/>
     </row>
     <row r="4" spans="1:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="26"/>
-      <c r="D4" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="N4" s="27"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="28"/>
-      <c r="V4" s="51"/>
+      <c r="V4" s="52"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="53" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="30"/>
-      <c r="V5" s="51"/>
+      <c r="V5" s="52"/>
     </row>
     <row r="6" spans="1:22" s="35" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="N6" s="33"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="33"/>
       <c r="S6" s="34"/>
-      <c r="V6" s="51"/>
+      <c r="V6" s="52"/>
     </row>
     <row r="7" spans="1:22" s="39" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="23"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -3168,11 +2531,11 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
       <c r="S7" s="38"/>
-      <c r="V7" s="51"/>
+      <c r="V7" s="52"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -3188,39 +2551,35 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="28"/>
-      <c r="V8" s="51"/>
+      <c r="V8" s="52"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="29">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="53" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
       <c r="S9" s="30"/>
       <c r="T9" s="25"/>
-      <c r="V9" s="51"/>
+      <c r="V9" s="52"/>
     </row>
     <row r="10" spans="1:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="31"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -3236,566 +2595,292 @@
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
       <c r="S10" s="40"/>
-      <c r="V10" s="51"/>
+      <c r="V10" s="52"/>
     </row>
     <row r="11" spans="1:22" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="V11" s="51"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="V11" s="52"/>
     </row>
     <row r="12" spans="1:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="26"/>
-      <c r="D12" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>219</v>
-      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
       <c r="S12" s="28"/>
-      <c r="V12" s="51"/>
+      <c r="V12" s="52"/>
     </row>
     <row r="13" spans="1:22" s="15" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="29">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="53" t="s">
-        <v>51</v>
-      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="30"/>
-      <c r="V13" s="51"/>
+      <c r="V13" s="52"/>
     </row>
     <row r="14" spans="1:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="31"/>
-      <c r="D14" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
       <c r="S14" s="40"/>
-      <c r="V14" s="51"/>
+      <c r="V14" s="52"/>
     </row>
     <row r="15" spans="1:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="21"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="R15" s="23"/>
-      <c r="V15" s="51"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="V15" s="52"/>
     </row>
     <row r="16" spans="1:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="26"/>
-      <c r="D16" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>229</v>
-      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
       <c r="S16" s="28"/>
-      <c r="V16" s="51"/>
+      <c r="V16" s="52"/>
     </row>
     <row r="17" spans="2:22" s="15" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="29">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
       <c r="S17" s="30"/>
-      <c r="V17" s="51"/>
+      <c r="V17" s="52"/>
     </row>
     <row r="18" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="31"/>
-      <c r="D18" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="O18" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>230</v>
-      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
       <c r="S18" s="40"/>
-      <c r="V18" s="51"/>
+      <c r="V18" s="52"/>
     </row>
     <row r="19" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="21"/>
       <c r="C19" s="43"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="V19" s="51"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="V19" s="52"/>
     </row>
     <row r="20" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="R20" s="27"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
       <c r="S20" s="28"/>
-      <c r="V20" s="51"/>
+      <c r="V20" s="52"/>
     </row>
     <row r="21" spans="2:22" s="15" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="29">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q21" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="53" t="s">
-        <v>45</v>
-      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
       <c r="S21" s="30"/>
-      <c r="V21" s="51"/>
+      <c r="V21" s="52"/>
     </row>
     <row r="22" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="31"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="M22" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="R22" s="33"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
       <c r="S22" s="40"/>
-      <c r="V22" s="52"/>
+      <c r="V22" s="53"/>
     </row>
     <row r="23" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="43"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
       <c r="V23" s="45"/>
     </row>
     <row r="24" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="26"/>
-      <c r="D24" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
       <c r="Q24" s="46"/>
       <c r="R24" s="46"/>
       <c r="S24" s="28"/>
@@ -3806,102 +2891,52 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" s="53" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
       <c r="S25" s="30"/>
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="31"/>
-      <c r="D26" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="M26" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
       <c r="S26" s="40"/>
       <c r="U26" s="15" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v>他</v>
+        <v/>
       </c>
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="21"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -3924,7 +2959,7 @@
     </row>
     <row r="28" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="26"/>
-      <c r="D28" s="27"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
@@ -3951,25 +2986,21 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="53" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
       <c r="S29" s="30"/>
       <c r="U29" s="44" t="str">
         <f t="shared" si="1"/>
@@ -3979,7 +3010,7 @@
     </row>
     <row r="30" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="31"/>
-      <c r="D30" s="33"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
@@ -4004,23 +3035,21 @@
     <row r="31" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="21"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
       <c r="U31" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4029,49 +3058,21 @@
     </row>
     <row r="32" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="26"/>
-      <c r="D32" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="R32" s="27" t="s">
-        <v>269</v>
-      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
       <c r="S32" s="28"/>
       <c r="U32" s="44" t="str">
         <f t="shared" si="1"/>
@@ -4084,161 +3085,81 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="O33" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="R33" s="53" t="s">
-        <v>79</v>
-      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
       <c r="S33" s="30"/>
       <c r="V33" s="16"/>
     </row>
     <row r="34" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="31"/>
-      <c r="D34" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="M34" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="O34" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="P34" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="R34" s="33" t="s">
-        <v>270</v>
-      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="40"/>
       <c r="V34" s="16"/>
     </row>
     <row r="35" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="21"/>
       <c r="C35" s="43"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
       <c r="V35" s="45"/>
     </row>
     <row r="36" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
       <c r="S36" s="28"/>
       <c r="V36" s="16"/>
     </row>
@@ -4247,102 +3168,48 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="N37" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="O37" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P37" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q37" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="R37" s="53" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
       <c r="S37" s="30"/>
       <c r="V37" s="16"/>
     </row>
     <row r="38" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="31"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="N38" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="O38" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="P38" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
       <c r="S38" s="40"/>
       <c r="V38" s="16"/>
     </row>
     <row r="39" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="21"/>
       <c r="C39" s="43"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
@@ -4361,7 +3228,7 @@
     </row>
     <row r="40" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="26"/>
-      <c r="D40" s="27"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -4384,31 +3251,27 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="53" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
       <c r="S41" s="30"/>
       <c r="V41" s="16"/>
     </row>
     <row r="42" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="31"/>
-      <c r="D42" s="33"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -4429,68 +3292,40 @@
     <row r="43" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="21"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
       <c r="V43" s="45"/>
     </row>
     <row r="44" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="26"/>
-      <c r="D44" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27" t="s">
-        <v>197</v>
-      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
       <c r="S44" s="28"/>
       <c r="V44" s="16"/>
     </row>
@@ -4499,167 +3334,81 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="K45" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="N45" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="P45" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q45" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="R45" s="53" t="s">
-        <v>39</v>
-      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
       <c r="S45" s="30"/>
       <c r="V45" s="16"/>
     </row>
     <row r="46" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="31"/>
-      <c r="D46" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="M46" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="N46" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="O46" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="P46" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33" t="s">
-        <v>198</v>
-      </c>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
       <c r="S46" s="40"/>
       <c r="V46" s="16"/>
     </row>
     <row r="47" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="21"/>
       <c r="C47" s="43"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
       <c r="V47" s="45"/>
     </row>
     <row r="48" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="26"/>
-      <c r="D48" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="R48" s="27" t="s">
-        <v>299</v>
-      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
       <c r="S48" s="28"/>
       <c r="V48" s="16"/>
     </row>
@@ -4668,114 +3417,58 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="L49" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="M49" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="N49" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="O49" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="P49" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q49" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="R49" s="53" t="s">
-        <v>97</v>
-      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
       <c r="S49" s="30"/>
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="31"/>
-      <c r="D50" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H50" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="N50" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="O50" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="P50" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q50" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="R50" s="33" t="s">
-        <v>300</v>
-      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
       <c r="S50" s="40"/>
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="2:22" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="21"/>
       <c r="C51" s="43"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
@@ -4784,35 +3477,17 @@
     </row>
     <row r="52" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="26"/>
-      <c r="D52" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="N52" s="27"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
       <c r="O52" s="27"/>
       <c r="P52" s="27"/>
       <c r="Q52" s="27"/>
@@ -4825,77 +3500,37 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="J53" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="K53" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="L53" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="M53" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="N53" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
       <c r="S53" s="30"/>
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="2:22" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="31"/>
-      <c r="D54" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="K54" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="L54" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="M54" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="N54" s="33"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
       <c r="O54" s="33"/>
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
@@ -4948,23 +3583,21 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
       <c r="S57" s="30"/>
       <c r="V57" s="16"/>
     </row>
@@ -5033,21 +3666,21 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
       <c r="S61" s="30"/>
       <c r="V61" s="16"/>
     </row>
@@ -5116,21 +3749,21 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
       <c r="S65" s="30"/>
       <c r="V65" s="16"/>
     </row>
@@ -5199,21 +3832,21 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
       <c r="S69" s="30"/>
       <c r="V69" s="16"/>
     </row>
@@ -5282,21 +3915,21 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
       <c r="S73" s="30"/>
       <c r="V73" s="16"/>
     </row>
@@ -5365,21 +3998,21 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="54"/>
       <c r="S77" s="30"/>
       <c r="V77" s="16"/>
     </row>
@@ -5448,21 +4081,21 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="53"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="53"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="54"/>
+      <c r="Q81" s="54"/>
+      <c r="R81" s="54"/>
       <c r="S81" s="30"/>
       <c r="V81" s="16"/>
     </row>
@@ -5531,21 +4164,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="53"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="54"/>
+      <c r="Q85" s="54"/>
+      <c r="R85" s="54"/>
       <c r="S85" s="30"/>
       <c r="V85" s="16"/>
     </row>
@@ -5614,21 +4247,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="53"/>
-      <c r="R89" s="53"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
+      <c r="L89" s="54"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="54"/>
+      <c r="O89" s="54"/>
+      <c r="P89" s="54"/>
+      <c r="Q89" s="54"/>
+      <c r="R89" s="54"/>
       <c r="S89" s="30"/>
       <c r="V89" s="16"/>
     </row>
@@ -5697,21 +4330,21 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-      <c r="M93" s="53"/>
-      <c r="N93" s="53"/>
-      <c r="O93" s="53"/>
-      <c r="P93" s="53"/>
-      <c r="Q93" s="53"/>
-      <c r="R93" s="53"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="54"/>
+      <c r="N93" s="54"/>
+      <c r="O93" s="54"/>
+      <c r="P93" s="54"/>
+      <c r="Q93" s="54"/>
+      <c r="R93" s="54"/>
       <c r="S93" s="30"/>
       <c r="V93" s="16"/>
     </row>
@@ -5780,21 +4413,21 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="53"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="54"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="54"/>
+      <c r="Q97" s="54"/>
+      <c r="R97" s="54"/>
       <c r="S97" s="30"/>
       <c r="V97" s="16"/>
     </row>
@@ -5863,21 +4496,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="53"/>
-      <c r="Q101" s="53"/>
-      <c r="R101" s="53"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="54"/>
+      <c r="Q101" s="54"/>
+      <c r="R101" s="54"/>
       <c r="S101" s="30"/>
       <c r="V101" s="16"/>
     </row>
@@ -5946,21 +4579,21 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="53"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="53"/>
-      <c r="Q105" s="53"/>
-      <c r="R105" s="53"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="57"/>
+      <c r="P105" s="54"/>
+      <c r="Q105" s="54"/>
+      <c r="R105" s="54"/>
       <c r="S105" s="30"/>
       <c r="V105" s="16"/>
     </row>
@@ -6029,21 +4662,21 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="53"/>
-      <c r="L109" s="53"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="53"/>
-      <c r="O109" s="53"/>
-      <c r="P109" s="53"/>
-      <c r="Q109" s="53"/>
-      <c r="R109" s="53"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="54"/>
+      <c r="O109" s="54"/>
+      <c r="P109" s="54"/>
+      <c r="Q109" s="54"/>
+      <c r="R109" s="54"/>
       <c r="S109" s="30"/>
       <c r="V109" s="16"/>
     </row>
@@ -6112,21 +4745,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="53"/>
-      <c r="M113" s="53"/>
-      <c r="N113" s="53"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="53"/>
-      <c r="Q113" s="53"/>
-      <c r="R113" s="53"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="54"/>
+      <c r="O113" s="57"/>
+      <c r="P113" s="54"/>
+      <c r="Q113" s="54"/>
+      <c r="R113" s="54"/>
       <c r="S113" s="30"/>
       <c r="V113" s="16"/>
     </row>
@@ -6195,21 +4828,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="55"/>
-      <c r="G117" s="55"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="53"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="53"/>
-      <c r="P117" s="53"/>
-      <c r="Q117" s="53"/>
-      <c r="R117" s="53"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="54"/>
+      <c r="N117" s="54"/>
+      <c r="O117" s="54"/>
+      <c r="P117" s="54"/>
+      <c r="Q117" s="54"/>
+      <c r="R117" s="54"/>
       <c r="S117" s="30"/>
       <c r="V117" s="16"/>
     </row>
@@ -6278,21 +4911,21 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="53"/>
-      <c r="M121" s="53"/>
-      <c r="N121" s="53"/>
-      <c r="O121" s="53"/>
-      <c r="P121" s="53"/>
-      <c r="Q121" s="53"/>
-      <c r="R121" s="53"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="54"/>
+      <c r="O121" s="54"/>
+      <c r="P121" s="54"/>
+      <c r="Q121" s="54"/>
+      <c r="R121" s="54"/>
       <c r="S121" s="30"/>
       <c r="V121" s="16"/>
     </row>
@@ -6361,21 +4994,21 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="53"/>
-      <c r="M125" s="53"/>
-      <c r="N125" s="53"/>
-      <c r="O125" s="53"/>
-      <c r="P125" s="53"/>
-      <c r="Q125" s="53"/>
-      <c r="R125" s="53"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
+      <c r="L125" s="54"/>
+      <c r="M125" s="54"/>
+      <c r="N125" s="54"/>
+      <c r="O125" s="54"/>
+      <c r="P125" s="54"/>
+      <c r="Q125" s="54"/>
+      <c r="R125" s="54"/>
       <c r="S125" s="30"/>
       <c r="V125" s="16"/>
     </row>
@@ -6444,21 +5077,21 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="57"/>
-      <c r="M129" s="53"/>
-      <c r="N129" s="53"/>
-      <c r="O129" s="53"/>
-      <c r="P129" s="53"/>
-      <c r="Q129" s="53"/>
-      <c r="R129" s="53"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="58"/>
+      <c r="M129" s="54"/>
+      <c r="N129" s="54"/>
+      <c r="O129" s="54"/>
+      <c r="P129" s="54"/>
+      <c r="Q129" s="54"/>
+      <c r="R129" s="54"/>
       <c r="S129" s="30"/>
       <c r="V129" s="16"/>
     </row>
@@ -6527,21 +5160,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="53"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="53"/>
-      <c r="M133" s="53"/>
-      <c r="N133" s="53"/>
-      <c r="O133" s="53"/>
-      <c r="P133" s="53"/>
-      <c r="Q133" s="53"/>
-      <c r="R133" s="53"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="56"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="54"/>
+      <c r="P133" s="54"/>
+      <c r="Q133" s="54"/>
+      <c r="R133" s="54"/>
       <c r="S133" s="30"/>
       <c r="V133" s="16"/>
     </row>
@@ -6610,21 +5243,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="53"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="53"/>
-      <c r="H137" s="53"/>
-      <c r="I137" s="53"/>
-      <c r="J137" s="53"/>
-      <c r="K137" s="53"/>
-      <c r="L137" s="53"/>
-      <c r="M137" s="53"/>
-      <c r="N137" s="53"/>
-      <c r="O137" s="53"/>
-      <c r="P137" s="53"/>
-      <c r="Q137" s="53"/>
-      <c r="R137" s="53"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="54"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="54"/>
+      <c r="K137" s="54"/>
+      <c r="L137" s="54"/>
+      <c r="M137" s="54"/>
+      <c r="N137" s="54"/>
+      <c r="O137" s="54"/>
+      <c r="P137" s="54"/>
+      <c r="Q137" s="54"/>
+      <c r="R137" s="54"/>
       <c r="S137" s="30"/>
       <c r="V137" s="16"/>
     </row>
@@ -6693,21 +5326,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="53"/>
-      <c r="E141" s="53"/>
-      <c r="F141" s="53"/>
-      <c r="G141" s="55"/>
-      <c r="H141" s="53"/>
-      <c r="I141" s="53"/>
-      <c r="J141" s="53"/>
-      <c r="K141" s="53"/>
-      <c r="L141" s="53"/>
-      <c r="M141" s="53"/>
-      <c r="N141" s="53"/>
-      <c r="O141" s="53"/>
-      <c r="P141" s="53"/>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="54"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="56"/>
+      <c r="H141" s="54"/>
+      <c r="I141" s="54"/>
+      <c r="J141" s="54"/>
+      <c r="K141" s="54"/>
+      <c r="L141" s="54"/>
+      <c r="M141" s="54"/>
+      <c r="N141" s="54"/>
+      <c r="O141" s="54"/>
+      <c r="P141" s="54"/>
+      <c r="Q141" s="54"/>
+      <c r="R141" s="54"/>
       <c r="S141" s="30"/>
       <c r="V141" s="16"/>
     </row>
@@ -6776,21 +5409,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="53"/>
-      <c r="E145" s="53"/>
-      <c r="F145" s="53"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="53"/>
-      <c r="I145" s="53"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="53"/>
-      <c r="M145" s="53"/>
-      <c r="N145" s="53"/>
-      <c r="O145" s="53"/>
-      <c r="P145" s="53"/>
-      <c r="Q145" s="53"/>
-      <c r="R145" s="53"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54"/>
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
+      <c r="P145" s="54"/>
+      <c r="Q145" s="54"/>
+      <c r="R145" s="54"/>
       <c r="S145" s="30"/>
       <c r="V145" s="16"/>
     </row>
@@ -6859,21 +5492,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="53"/>
-      <c r="E149" s="53"/>
-      <c r="F149" s="53"/>
-      <c r="G149" s="53"/>
-      <c r="H149" s="53"/>
-      <c r="I149" s="53"/>
-      <c r="J149" s="53"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="53"/>
-      <c r="M149" s="53"/>
-      <c r="N149" s="53"/>
-      <c r="O149" s="53"/>
-      <c r="P149" s="53"/>
-      <c r="Q149" s="53"/>
-      <c r="R149" s="53"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="54"/>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="54"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="54"/>
+      <c r="P149" s="54"/>
+      <c r="Q149" s="54"/>
+      <c r="R149" s="54"/>
       <c r="S149" s="30"/>
       <c r="V149" s="16"/>
     </row>
@@ -6942,21 +5575,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="53"/>
-      <c r="E153" s="53"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="53"/>
-      <c r="H153" s="53"/>
-      <c r="I153" s="53"/>
-      <c r="J153" s="53"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="53"/>
-      <c r="M153" s="53"/>
-      <c r="N153" s="53"/>
-      <c r="O153" s="53"/>
-      <c r="P153" s="53"/>
-      <c r="Q153" s="53"/>
-      <c r="R153" s="53"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="54"/>
+      <c r="G153" s="54"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="54"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="54"/>
+      <c r="L153" s="54"/>
+      <c r="M153" s="54"/>
+      <c r="N153" s="54"/>
+      <c r="O153" s="54"/>
+      <c r="P153" s="54"/>
+      <c r="Q153" s="54"/>
+      <c r="R153" s="54"/>
       <c r="S153" s="30"/>
       <c r="V153" s="16"/>
     </row>
@@ -7025,21 +5658,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="53"/>
-      <c r="E157" s="53"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="53"/>
-      <c r="H157" s="53"/>
-      <c r="I157" s="53"/>
-      <c r="J157" s="53"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="53"/>
-      <c r="M157" s="53"/>
-      <c r="N157" s="53"/>
-      <c r="O157" s="53"/>
-      <c r="P157" s="53"/>
-      <c r="Q157" s="53"/>
-      <c r="R157" s="53"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="54"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="54"/>
+      <c r="N157" s="54"/>
+      <c r="O157" s="54"/>
+      <c r="P157" s="54"/>
+      <c r="Q157" s="54"/>
+      <c r="R157" s="54"/>
       <c r="S157" s="30"/>
       <c r="V157" s="16"/>
     </row>
@@ -7108,21 +5741,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="53"/>
-      <c r="H161" s="53"/>
-      <c r="I161" s="53"/>
-      <c r="J161" s="53"/>
-      <c r="K161" s="53"/>
-      <c r="L161" s="53"/>
-      <c r="M161" s="53"/>
-      <c r="N161" s="53"/>
-      <c r="O161" s="53"/>
-      <c r="P161" s="53"/>
-      <c r="Q161" s="53"/>
-      <c r="R161" s="53"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="54"/>
+      <c r="H161" s="54"/>
+      <c r="I161" s="54"/>
+      <c r="J161" s="54"/>
+      <c r="K161" s="54"/>
+      <c r="L161" s="54"/>
+      <c r="M161" s="54"/>
+      <c r="N161" s="54"/>
+      <c r="O161" s="54"/>
+      <c r="P161" s="54"/>
+      <c r="Q161" s="54"/>
+      <c r="R161" s="54"/>
       <c r="S161" s="30"/>
       <c r="V161" s="16"/>
     </row>
@@ -7191,21 +5824,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="53"/>
-      <c r="E165" s="53"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="53"/>
-      <c r="H165" s="53"/>
-      <c r="I165" s="53"/>
-      <c r="J165" s="53"/>
-      <c r="K165" s="53"/>
-      <c r="L165" s="53"/>
-      <c r="M165" s="53"/>
-      <c r="N165" s="53"/>
-      <c r="O165" s="53"/>
-      <c r="P165" s="53"/>
-      <c r="Q165" s="53"/>
-      <c r="R165" s="53"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="54"/>
+      <c r="J165" s="54"/>
+      <c r="K165" s="54"/>
+      <c r="L165" s="54"/>
+      <c r="M165" s="54"/>
+      <c r="N165" s="54"/>
+      <c r="O165" s="54"/>
+      <c r="P165" s="54"/>
+      <c r="Q165" s="54"/>
+      <c r="R165" s="54"/>
       <c r="S165" s="30"/>
       <c r="V165" s="16"/>
     </row>
@@ -7273,21 +5906,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="15"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="53"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="53"/>
-      <c r="H169" s="53"/>
-      <c r="I169" s="53"/>
-      <c r="J169" s="53"/>
-      <c r="K169" s="53"/>
-      <c r="L169" s="53"/>
-      <c r="M169" s="53"/>
-      <c r="N169" s="53"/>
-      <c r="O169" s="53"/>
-      <c r="P169" s="53"/>
-      <c r="Q169" s="53"/>
-      <c r="R169" s="53"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="54"/>
+      <c r="H169" s="54"/>
+      <c r="I169" s="54"/>
+      <c r="J169" s="54"/>
+      <c r="K169" s="54"/>
+      <c r="L169" s="54"/>
+      <c r="M169" s="54"/>
+      <c r="N169" s="54"/>
+      <c r="O169" s="54"/>
+      <c r="P169" s="54"/>
+      <c r="Q169" s="54"/>
+      <c r="R169" s="54"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="31"/>
@@ -7352,21 +5985,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="15"/>
-      <c r="D173" s="53"/>
-      <c r="E173" s="53"/>
-      <c r="F173" s="53"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="53"/>
-      <c r="I173" s="53"/>
-      <c r="J173" s="53"/>
-      <c r="K173" s="53"/>
-      <c r="L173" s="53"/>
-      <c r="M173" s="53"/>
-      <c r="N173" s="53"/>
-      <c r="O173" s="53"/>
-      <c r="P173" s="53"/>
-      <c r="Q173" s="53"/>
-      <c r="R173" s="53"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="54"/>
+      <c r="G173" s="56"/>
+      <c r="H173" s="54"/>
+      <c r="I173" s="54"/>
+      <c r="J173" s="54"/>
+      <c r="K173" s="54"/>
+      <c r="L173" s="54"/>
+      <c r="M173" s="54"/>
+      <c r="N173" s="54"/>
+      <c r="O173" s="54"/>
+      <c r="P173" s="54"/>
+      <c r="Q173" s="54"/>
+      <c r="R173" s="54"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="31"/>
@@ -7431,21 +6064,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="15"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
-      <c r="F177" s="53"/>
-      <c r="G177" s="53"/>
-      <c r="H177" s="53"/>
-      <c r="I177" s="53"/>
-      <c r="J177" s="53"/>
-      <c r="K177" s="53"/>
-      <c r="L177" s="53"/>
-      <c r="M177" s="53"/>
-      <c r="N177" s="53"/>
-      <c r="O177" s="53"/>
-      <c r="P177" s="53"/>
-      <c r="Q177" s="53"/>
-      <c r="R177" s="53"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="54"/>
+      <c r="F177" s="54"/>
+      <c r="G177" s="54"/>
+      <c r="H177" s="54"/>
+      <c r="I177" s="54"/>
+      <c r="J177" s="54"/>
+      <c r="K177" s="54"/>
+      <c r="L177" s="54"/>
+      <c r="M177" s="54"/>
+      <c r="N177" s="54"/>
+      <c r="O177" s="54"/>
+      <c r="P177" s="54"/>
+      <c r="Q177" s="54"/>
+      <c r="R177" s="54"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="31"/>
@@ -7510,21 +6143,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="15"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="53"/>
-      <c r="I181" s="53"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="53"/>
-      <c r="L181" s="53"/>
-      <c r="M181" s="53"/>
-      <c r="N181" s="53"/>
-      <c r="O181" s="53"/>
-      <c r="P181" s="53"/>
-      <c r="Q181" s="53"/>
-      <c r="R181" s="53"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="54"/>
+      <c r="G181" s="56"/>
+      <c r="H181" s="54"/>
+      <c r="I181" s="54"/>
+      <c r="J181" s="54"/>
+      <c r="K181" s="54"/>
+      <c r="L181" s="54"/>
+      <c r="M181" s="54"/>
+      <c r="N181" s="54"/>
+      <c r="O181" s="54"/>
+      <c r="P181" s="54"/>
+      <c r="Q181" s="54"/>
+      <c r="R181" s="54"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="31"/>
@@ -7589,21 +6222,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="15"/>
-      <c r="D185" s="53"/>
-      <c r="E185" s="53"/>
-      <c r="F185" s="53"/>
-      <c r="G185" s="53"/>
-      <c r="H185" s="53"/>
-      <c r="I185" s="53"/>
-      <c r="J185" s="53"/>
-      <c r="K185" s="53"/>
-      <c r="L185" s="53"/>
-      <c r="M185" s="53"/>
-      <c r="N185" s="53"/>
-      <c r="O185" s="53"/>
-      <c r="P185" s="53"/>
-      <c r="Q185" s="53"/>
-      <c r="R185" s="53"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="54"/>
+      <c r="F185" s="54"/>
+      <c r="G185" s="54"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="54"/>
+      <c r="J185" s="54"/>
+      <c r="K185" s="54"/>
+      <c r="L185" s="54"/>
+      <c r="M185" s="54"/>
+      <c r="N185" s="54"/>
+      <c r="O185" s="54"/>
+      <c r="P185" s="54"/>
+      <c r="Q185" s="54"/>
+      <c r="R185" s="54"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="31"/>
@@ -7668,21 +6301,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="15"/>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="53"/>
-      <c r="H189" s="53"/>
-      <c r="I189" s="53"/>
-      <c r="J189" s="53"/>
-      <c r="K189" s="53"/>
-      <c r="L189" s="53"/>
-      <c r="M189" s="53"/>
-      <c r="N189" s="53"/>
-      <c r="O189" s="53"/>
-      <c r="P189" s="53"/>
-      <c r="Q189" s="53"/>
-      <c r="R189" s="53"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="54"/>
+      <c r="F189" s="54"/>
+      <c r="G189" s="54"/>
+      <c r="H189" s="54"/>
+      <c r="I189" s="54"/>
+      <c r="J189" s="54"/>
+      <c r="K189" s="54"/>
+      <c r="L189" s="54"/>
+      <c r="M189" s="54"/>
+      <c r="N189" s="54"/>
+      <c r="O189" s="54"/>
+      <c r="P189" s="54"/>
+      <c r="Q189" s="54"/>
+      <c r="R189" s="54"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="31"/>
@@ -7747,21 +6380,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="15"/>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
-      <c r="F193" s="53"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="53"/>
-      <c r="I193" s="53"/>
-      <c r="J193" s="53"/>
-      <c r="K193" s="53"/>
-      <c r="L193" s="53"/>
-      <c r="M193" s="53"/>
-      <c r="N193" s="53"/>
-      <c r="O193" s="53"/>
-      <c r="P193" s="53"/>
-      <c r="Q193" s="53"/>
-      <c r="R193" s="53"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="54"/>
+      <c r="F193" s="54"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="54"/>
+      <c r="I193" s="54"/>
+      <c r="J193" s="54"/>
+      <c r="K193" s="54"/>
+      <c r="L193" s="54"/>
+      <c r="M193" s="54"/>
+      <c r="N193" s="54"/>
+      <c r="O193" s="54"/>
+      <c r="P193" s="54"/>
+      <c r="Q193" s="54"/>
+      <c r="R193" s="54"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="31"/>
@@ -7826,21 +6459,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="15"/>
-      <c r="D197" s="53"/>
-      <c r="E197" s="53"/>
-      <c r="F197" s="53"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="53"/>
-      <c r="I197" s="53"/>
-      <c r="J197" s="53"/>
-      <c r="K197" s="53"/>
-      <c r="L197" s="53"/>
-      <c r="M197" s="53"/>
-      <c r="N197" s="53"/>
-      <c r="O197" s="53"/>
-      <c r="P197" s="53"/>
-      <c r="Q197" s="53"/>
-      <c r="R197" s="53"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="54"/>
+      <c r="K197" s="54"/>
+      <c r="L197" s="54"/>
+      <c r="M197" s="54"/>
+      <c r="N197" s="54"/>
+      <c r="O197" s="54"/>
+      <c r="P197" s="54"/>
+      <c r="Q197" s="54"/>
+      <c r="R197" s="54"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="31"/>
@@ -7905,21 +6538,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="15"/>
-      <c r="D201" s="53"/>
-      <c r="E201" s="53"/>
-      <c r="F201" s="53"/>
-      <c r="G201" s="55"/>
-      <c r="H201" s="53"/>
-      <c r="I201" s="53"/>
-      <c r="J201" s="53"/>
-      <c r="K201" s="53"/>
-      <c r="L201" s="53"/>
-      <c r="M201" s="53"/>
-      <c r="N201" s="53"/>
-      <c r="O201" s="53"/>
-      <c r="P201" s="53"/>
-      <c r="Q201" s="53"/>
-      <c r="R201" s="53"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="54"/>
+      <c r="L201" s="54"/>
+      <c r="M201" s="54"/>
+      <c r="N201" s="54"/>
+      <c r="O201" s="54"/>
+      <c r="P201" s="54"/>
+      <c r="Q201" s="54"/>
+      <c r="R201" s="54"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="31"/>
@@ -7984,21 +6617,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="15"/>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="53"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="53"/>
-      <c r="I205" s="53"/>
-      <c r="J205" s="53"/>
-      <c r="K205" s="53"/>
-      <c r="L205" s="53"/>
-      <c r="M205" s="53"/>
-      <c r="N205" s="53"/>
-      <c r="O205" s="53"/>
-      <c r="P205" s="53"/>
-      <c r="Q205" s="53"/>
-      <c r="R205" s="53"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="54"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="54"/>
+      <c r="K205" s="54"/>
+      <c r="L205" s="54"/>
+      <c r="M205" s="54"/>
+      <c r="N205" s="54"/>
+      <c r="O205" s="54"/>
+      <c r="P205" s="54"/>
+      <c r="Q205" s="54"/>
+      <c r="R205" s="54"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="31"/>
@@ -8063,21 +6696,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="15"/>
-      <c r="D209" s="53"/>
-      <c r="E209" s="53"/>
-      <c r="F209" s="53"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="53"/>
-      <c r="I209" s="53"/>
-      <c r="J209" s="53"/>
-      <c r="K209" s="53"/>
-      <c r="L209" s="53"/>
-      <c r="M209" s="53"/>
-      <c r="N209" s="53"/>
-      <c r="O209" s="53"/>
-      <c r="P209" s="53"/>
-      <c r="Q209" s="53"/>
-      <c r="R209" s="53"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="54"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="54"/>
+      <c r="M209" s="54"/>
+      <c r="N209" s="54"/>
+      <c r="O209" s="54"/>
+      <c r="P209" s="54"/>
+      <c r="Q209" s="54"/>
+      <c r="R209" s="54"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="31"/>
@@ -8142,21 +6775,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="15"/>
-      <c r="D213" s="53"/>
-      <c r="E213" s="53"/>
-      <c r="F213" s="53"/>
-      <c r="G213" s="55"/>
-      <c r="H213" s="53"/>
-      <c r="I213" s="53"/>
-      <c r="J213" s="53"/>
-      <c r="K213" s="53"/>
-      <c r="L213" s="53"/>
-      <c r="M213" s="53"/>
-      <c r="N213" s="53"/>
-      <c r="O213" s="53"/>
-      <c r="P213" s="53"/>
-      <c r="Q213" s="53"/>
-      <c r="R213" s="53"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="54"/>
+      <c r="G213" s="56"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="54"/>
+      <c r="J213" s="54"/>
+      <c r="K213" s="54"/>
+      <c r="L213" s="54"/>
+      <c r="M213" s="54"/>
+      <c r="N213" s="54"/>
+      <c r="O213" s="54"/>
+      <c r="P213" s="54"/>
+      <c r="Q213" s="54"/>
+      <c r="R213" s="54"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="31"/>
@@ -8221,21 +6854,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="15"/>
-      <c r="D217" s="53"/>
-      <c r="E217" s="53"/>
-      <c r="F217" s="53"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="53"/>
-      <c r="I217" s="53"/>
-      <c r="J217" s="53"/>
-      <c r="K217" s="53"/>
-      <c r="L217" s="53"/>
-      <c r="M217" s="53"/>
-      <c r="N217" s="53"/>
-      <c r="O217" s="53"/>
-      <c r="P217" s="53"/>
-      <c r="Q217" s="53"/>
-      <c r="R217" s="53"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="54"/>
+      <c r="G217" s="56"/>
+      <c r="H217" s="54"/>
+      <c r="I217" s="54"/>
+      <c r="J217" s="54"/>
+      <c r="K217" s="54"/>
+      <c r="L217" s="54"/>
+      <c r="M217" s="54"/>
+      <c r="N217" s="54"/>
+      <c r="O217" s="54"/>
+      <c r="P217" s="54"/>
+      <c r="Q217" s="54"/>
+      <c r="R217" s="54"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="31"/>
@@ -8300,21 +6933,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="15"/>
-      <c r="D221" s="53"/>
-      <c r="E221" s="53"/>
-      <c r="F221" s="53"/>
-      <c r="G221" s="55"/>
-      <c r="H221" s="53"/>
-      <c r="I221" s="53"/>
-      <c r="J221" s="53"/>
-      <c r="K221" s="53"/>
-      <c r="L221" s="53"/>
-      <c r="M221" s="53"/>
-      <c r="N221" s="53"/>
-      <c r="O221" s="53"/>
-      <c r="P221" s="53"/>
-      <c r="Q221" s="53"/>
-      <c r="R221" s="53"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="54"/>
+      <c r="F221" s="54"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="54"/>
+      <c r="I221" s="54"/>
+      <c r="J221" s="54"/>
+      <c r="K221" s="54"/>
+      <c r="L221" s="54"/>
+      <c r="M221" s="54"/>
+      <c r="N221" s="54"/>
+      <c r="O221" s="54"/>
+      <c r="P221" s="54"/>
+      <c r="Q221" s="54"/>
+      <c r="R221" s="54"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="31"/>
@@ -8379,21 +7012,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="15"/>
-      <c r="D225" s="53"/>
-      <c r="E225" s="53"/>
-      <c r="F225" s="53"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="53"/>
-      <c r="I225" s="53"/>
-      <c r="J225" s="53"/>
-      <c r="K225" s="53"/>
-      <c r="L225" s="53"/>
-      <c r="M225" s="53"/>
-      <c r="N225" s="53"/>
-      <c r="O225" s="53"/>
-      <c r="P225" s="53"/>
-      <c r="Q225" s="53"/>
-      <c r="R225" s="53"/>
+      <c r="D225" s="54"/>
+      <c r="E225" s="54"/>
+      <c r="F225" s="54"/>
+      <c r="G225" s="56"/>
+      <c r="H225" s="54"/>
+      <c r="I225" s="54"/>
+      <c r="J225" s="54"/>
+      <c r="K225" s="54"/>
+      <c r="L225" s="54"/>
+      <c r="M225" s="54"/>
+      <c r="N225" s="54"/>
+      <c r="O225" s="54"/>
+      <c r="P225" s="54"/>
+      <c r="Q225" s="54"/>
+      <c r="R225" s="54"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="31"/>
@@ -8458,21 +7091,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="15"/>
-      <c r="D229" s="53"/>
-      <c r="E229" s="53"/>
-      <c r="F229" s="53"/>
-      <c r="G229" s="55"/>
-      <c r="H229" s="53"/>
-      <c r="I229" s="53"/>
-      <c r="J229" s="53"/>
-      <c r="K229" s="53"/>
-      <c r="L229" s="53"/>
-      <c r="M229" s="53"/>
-      <c r="N229" s="53"/>
-      <c r="O229" s="53"/>
-      <c r="P229" s="53"/>
-      <c r="Q229" s="53"/>
-      <c r="R229" s="53"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="54"/>
+      <c r="F229" s="54"/>
+      <c r="G229" s="56"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="54"/>
+      <c r="J229" s="54"/>
+      <c r="K229" s="54"/>
+      <c r="L229" s="54"/>
+      <c r="M229" s="54"/>
+      <c r="N229" s="54"/>
+      <c r="O229" s="54"/>
+      <c r="P229" s="54"/>
+      <c r="Q229" s="54"/>
+      <c r="R229" s="54"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="31"/>
@@ -8537,21 +7170,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="15"/>
-      <c r="D233" s="53"/>
-      <c r="E233" s="53"/>
-      <c r="F233" s="53"/>
-      <c r="G233" s="55"/>
-      <c r="H233" s="53"/>
-      <c r="I233" s="53"/>
-      <c r="J233" s="53"/>
-      <c r="K233" s="53"/>
-      <c r="L233" s="53"/>
-      <c r="M233" s="53"/>
-      <c r="N233" s="53"/>
-      <c r="O233" s="53"/>
-      <c r="P233" s="53"/>
-      <c r="Q233" s="53"/>
-      <c r="R233" s="53"/>
+      <c r="D233" s="54"/>
+      <c r="E233" s="54"/>
+      <c r="F233" s="54"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="54"/>
+      <c r="I233" s="54"/>
+      <c r="J233" s="54"/>
+      <c r="K233" s="54"/>
+      <c r="L233" s="54"/>
+      <c r="M233" s="54"/>
+      <c r="N233" s="54"/>
+      <c r="O233" s="54"/>
+      <c r="P233" s="54"/>
+      <c r="Q233" s="54"/>
+      <c r="R233" s="54"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="31"/>
@@ -8616,21 +7249,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="15"/>
-      <c r="D237" s="53"/>
-      <c r="E237" s="53"/>
-      <c r="F237" s="53"/>
-      <c r="G237" s="55"/>
-      <c r="H237" s="53"/>
-      <c r="I237" s="53"/>
-      <c r="J237" s="53"/>
-      <c r="K237" s="53"/>
-      <c r="L237" s="53"/>
-      <c r="M237" s="53"/>
-      <c r="N237" s="53"/>
-      <c r="O237" s="53"/>
-      <c r="P237" s="53"/>
-      <c r="Q237" s="53"/>
-      <c r="R237" s="53"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="54"/>
+      <c r="G237" s="56"/>
+      <c r="H237" s="54"/>
+      <c r="I237" s="54"/>
+      <c r="J237" s="54"/>
+      <c r="K237" s="54"/>
+      <c r="L237" s="54"/>
+      <c r="M237" s="54"/>
+      <c r="N237" s="54"/>
+      <c r="O237" s="54"/>
+      <c r="P237" s="54"/>
+      <c r="Q237" s="54"/>
+      <c r="R237" s="54"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="31"/>
@@ -8695,21 +7328,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="15"/>
-      <c r="D241" s="53"/>
-      <c r="E241" s="53"/>
-      <c r="F241" s="53"/>
-      <c r="G241" s="55"/>
-      <c r="H241" s="53"/>
-      <c r="I241" s="53"/>
-      <c r="J241" s="53"/>
-      <c r="K241" s="53"/>
-      <c r="L241" s="53"/>
-      <c r="M241" s="53"/>
-      <c r="N241" s="53"/>
-      <c r="O241" s="53"/>
-      <c r="P241" s="53"/>
-      <c r="Q241" s="53"/>
-      <c r="R241" s="53"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="54"/>
+      <c r="F241" s="54"/>
+      <c r="G241" s="56"/>
+      <c r="H241" s="54"/>
+      <c r="I241" s="54"/>
+      <c r="J241" s="54"/>
+      <c r="K241" s="54"/>
+      <c r="L241" s="54"/>
+      <c r="M241" s="54"/>
+      <c r="N241" s="54"/>
+      <c r="O241" s="54"/>
+      <c r="P241" s="54"/>
+      <c r="Q241" s="54"/>
+      <c r="R241" s="54"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="31"/>
@@ -8933,7 +7566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674B50D-4E38-4A71-A0A6-1990B549463C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8FFACA-E6F8-444C-BFF7-354BC04943B4}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8942,16 +7575,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8961,8 +7594,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A877E5D4-7C25-4B34-8DAF-A140FF11F1B9}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE938C-8C11-4AA8-9838-2EE42634EE57}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8970,16 +7603,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8989,800 +7655,806 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356E1D8-D14D-4C8F-BBE4-30F11D4DEB38}">
-  <dimension ref="A1:D71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F7B521-80AF-4968-8463-66FC5E7C1BA5}">
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>175</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
         <v>171</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9806,21 +8478,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -9828,10 +8500,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -9839,10 +8511,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
